--- a/AgendaPetShop/Diagrams/Testes.xlsx
+++ b/AgendaPetShop/Diagrams/Testes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PetShop_Scheduler\Petshop_Scheduler\AgendaPetShop\Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgb138\Desktop\Petshop_Scheduler-master\Petshop_Scheduler-master\AgendaPetShop\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="842" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="842" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DONO" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="251">
   <si>
     <t xml:space="preserve">N° Caso de Teste </t>
   </si>
@@ -762,13 +762,40 @@
   </si>
   <si>
     <t>Não altera o registro</t>
+  </si>
+  <si>
+    <t>Não implementada</t>
+  </si>
+  <si>
+    <t>Tela exibida</t>
+  </si>
+  <si>
+    <t>Não há mensagem</t>
+  </si>
+  <si>
+    <t>Resultados exibidos</t>
+  </si>
+  <si>
+    <t>Tela exibida e dados do registro carregados nos campos</t>
+  </si>
+  <si>
+    <t>O sistema exibe a tela de Cadastros e carrega os dados do registro selecionado nos campos</t>
+  </si>
+  <si>
+    <t>Registro mantido na tela e registro cadastrado, com exceção dos campos de combobox, sem mensagem de confirmação</t>
+  </si>
+  <si>
+    <t>Alteração não gravada</t>
+  </si>
+  <si>
+    <t>Alteração gravada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +815,11 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -944,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -997,6 +1029,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,6 +1172,169 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1377,58 +1579,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1628,31 +1778,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1879,31 +2004,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2130,31 +2230,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2632,31 +2707,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3134,31 +3184,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3385,31 +3410,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3636,31 +3636,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3887,31 +3862,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -5895,6 +5845,33 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -6121,6 +6098,33 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -6347,6 +6351,33 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -6555,6 +6586,33 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -8149,160 +8207,160 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela149" displayName="Tabela149" ref="B11:H17" totalsRowShown="0" headerRowDxfId="231" dataDxfId="229" headerRowBorderDxfId="230" tableBorderDxfId="228" totalsRowBorderDxfId="227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela149" displayName="Tabela149" ref="B11:H17" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224" totalsRowBorderDxfId="223">
   <autoFilter ref="B11:H17"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="226"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="225"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="224"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="223"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="222"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="221"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="220"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="222"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="221"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="220"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="219"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="218"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="217"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="216"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela13510" displayName="Tabela13510" ref="B20:H23" totalsRowShown="0" headerRowDxfId="219" dataDxfId="217" headerRowBorderDxfId="218" tableBorderDxfId="216" totalsRowBorderDxfId="215">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela13510" displayName="Tabela13510" ref="B20:H23" totalsRowShown="0" headerRowDxfId="215" dataDxfId="213" headerRowBorderDxfId="214" tableBorderDxfId="212" totalsRowBorderDxfId="211">
   <autoFilter ref="B20:H23"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="214"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="213"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="212"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="211"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="210"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="209"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="208"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="210"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="209"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="208"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="207"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="206"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="205"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela14611" displayName="Tabela14611" ref="B2:H8" totalsRowShown="0" headerRowDxfId="207" dataDxfId="205" headerRowBorderDxfId="206" tableBorderDxfId="204" totalsRowBorderDxfId="203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela14611" displayName="Tabela14611" ref="B2:H8" totalsRowShown="0" headerRowDxfId="203" dataDxfId="201" headerRowBorderDxfId="202" tableBorderDxfId="200" totalsRowBorderDxfId="199">
   <autoFilter ref="B2:H8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="202"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="201"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="200"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="199"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="198"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="197"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="196"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="198"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="197"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="196"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="195"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="194"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="193"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela14912" displayName="Tabela14912" ref="B9:H13" totalsRowShown="0" headerRowDxfId="195" dataDxfId="193" headerRowBorderDxfId="194" tableBorderDxfId="192" totalsRowBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela14912" displayName="Tabela14912" ref="B9:H13" totalsRowShown="0" headerRowDxfId="191" dataDxfId="189" headerRowBorderDxfId="190" tableBorderDxfId="188" totalsRowBorderDxfId="187">
   <autoFilter ref="B9:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="190"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="189"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="188"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="187"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="186"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="185"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="184"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="186"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="185"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="184"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="183"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="182"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="181"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela1351013" displayName="Tabela1351013" ref="B16:H19" totalsRowShown="0" headerRowDxfId="183" dataDxfId="181" headerRowBorderDxfId="182" tableBorderDxfId="180" totalsRowBorderDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela1351013" displayName="Tabela1351013" ref="B16:H19" totalsRowShown="0" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" tableBorderDxfId="176" totalsRowBorderDxfId="175">
   <autoFilter ref="B16:H19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="178"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="177"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="176"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="175"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="174"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="173"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="172"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="174"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="173"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="172"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="171"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="170"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="169"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela1461114" displayName="Tabela1461114" ref="B2:H6" totalsRowShown="0" headerRowDxfId="171" dataDxfId="169" headerRowBorderDxfId="170" tableBorderDxfId="168" totalsRowBorderDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela1461114" displayName="Tabela1461114" ref="B2:H6" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164" totalsRowBorderDxfId="163">
   <autoFilter ref="B2:H6"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="166"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="165"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="164"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="163"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="162"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="161"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="160"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="162"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="161"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="160"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="159"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="158"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="157"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela1461117" displayName="Tabela1461117" ref="B2:H5" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela1461117" displayName="Tabela1461117" ref="B2:H5" totalsRowShown="0" headerRowDxfId="155" dataDxfId="153" headerRowBorderDxfId="154" tableBorderDxfId="152" totalsRowBorderDxfId="151">
   <autoFilter ref="B2:H5"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="154"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="153"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="152"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="151"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="150"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="149"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="148"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="150"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="149"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="148"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="147"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="146"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="145"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela1418" displayName="Tabela1418" ref="B9:H17" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela1418" displayName="Tabela1418" ref="B9:H17" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <autoFilter ref="B9:H17"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="142"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="141"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="140"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="139"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="138"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="137"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="136"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="138"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="137"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="136"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="135"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="134"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="133"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela13519" displayName="Tabela13519" ref="B20:H27" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela13519" displayName="Tabela13519" ref="B20:H27" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
   <autoFilter ref="B20:H27"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="130"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="129"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="128"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="127"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="126"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="125"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="124"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="127"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="126"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="125"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="124"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="123"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="122"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabela14620" displayName="Tabela14620" ref="B2:H6" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122" tableBorderDxfId="120" totalsRowBorderDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabela14620" displayName="Tabela14620" ref="B2:H6" totalsRowShown="0" headerRowDxfId="121" dataDxfId="119" headerRowBorderDxfId="120" tableBorderDxfId="118" totalsRowBorderDxfId="117">
   <autoFilter ref="B2:H6"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="118"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="117"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="116"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="115"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="114"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="113"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="112"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="116"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="115"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="114"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="113"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="112"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="111"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8325,16 +8383,16 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela1358151621" displayName="Tabela1358151621" ref="B30:H34" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela1358151621" displayName="Tabela1358151621" ref="B30:H34" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="B30:H34"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="106"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="105"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="104"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="103"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="102"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="101"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="100"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="105"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="104"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="103"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="102"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="101"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="100"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8366,103 +8424,103 @@
     <tableColumn id="4" name="Pré-condição" dataDxfId="79"/>
     <tableColumn id="5" name="Pontos de observação" dataDxfId="78"/>
     <tableColumn id="6" name="Resultado esperado" dataDxfId="77"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="76"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabela1462024" displayName="Tabela1462024" ref="B2:H7" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabela1462024" displayName="Tabela1462024" ref="B2:H7" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <autoFilter ref="B2:H7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="70"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="69"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="68"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="67"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="66"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="65"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="64"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="71"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="70"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="69"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="68"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="67"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="66"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabela135815162125" displayName="Tabela135815162125" ref="B35:H39" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabela135815162125" displayName="Tabela135815162125" ref="B35:H39" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <autoFilter ref="B35:H39"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="58"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="57"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="56"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="55"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="54"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="53"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="52"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="59"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="58"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="57"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="56"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="55"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="54"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabela14182226" displayName="Tabela14182226" ref="B10:H20" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabela14182226" displayName="Tabela14182226" ref="B10:H20" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="B10:H20"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="46"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="45"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="44"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="43"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="42"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="41"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="40"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="48"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="47"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="46"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="45"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="44"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="43"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabela135192327" displayName="Tabela135192327" ref="B23:H32" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabela135192327" displayName="Tabela135192327" ref="B23:H32" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="B23:H32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="34"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="33"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="32"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="31"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="30"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="29"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="28"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="37"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="36"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="35"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="34"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="33"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="32"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabela146202428" displayName="Tabela146202428" ref="B2:H7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabela146202428" displayName="Tabela146202428" ref="B2:H7" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="B2:H7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="22"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="21"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="20"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="19"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="18"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="17"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="16"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="26"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="25"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="24"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="23"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="22"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="6"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabela13581516212529" displayName="Tabela13581516212529" ref="B35:H39" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabela13581516212529" displayName="Tabela13581516212529" ref="B35:H39" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="B35:H39"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="10"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="9"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="8"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="7"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="6"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="5"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="4"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="16"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="15"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="14"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="13"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="12"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="11"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8529,55 +8587,55 @@
     <tableColumn id="4" name="Pré-condição" dataDxfId="267"/>
     <tableColumn id="5" name="Pontos de observação" dataDxfId="266"/>
     <tableColumn id="6" name="Resultado esperado" dataDxfId="265"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="2"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="264"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela135" displayName="Tabela135" ref="B20:H27" totalsRowShown="0" headerRowDxfId="264" dataDxfId="262" headerRowBorderDxfId="263" tableBorderDxfId="261" totalsRowBorderDxfId="260">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela135" displayName="Tabela135" ref="B20:H27" totalsRowShown="0" headerRowDxfId="263" dataDxfId="261" headerRowBorderDxfId="262" tableBorderDxfId="260" totalsRowBorderDxfId="259">
   <autoFilter ref="B20:H27"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="259"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="258"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="257"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="256"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="255"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="254"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="1"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="258"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="257"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="256"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="255"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="254"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="253"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela146" displayName="Tabela146" ref="B2:H6" totalsRowShown="0" headerRowDxfId="253" dataDxfId="251" headerRowBorderDxfId="252" tableBorderDxfId="250" totalsRowBorderDxfId="249">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela146" displayName="Tabela146" ref="B2:H6" totalsRowShown="0" headerRowDxfId="251" dataDxfId="249" headerRowBorderDxfId="250" tableBorderDxfId="248" totalsRowBorderDxfId="247">
   <autoFilter ref="B2:H6"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="248"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="247"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="246"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="245"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="244"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="243"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="3"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="246"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="245"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="244"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="243"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="242"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="241"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="240"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabela13581516" displayName="Tabela13581516" ref="B30:H34" totalsRowShown="0" headerRowDxfId="242" dataDxfId="240" headerRowBorderDxfId="241" tableBorderDxfId="239" totalsRowBorderDxfId="238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabela13581516" displayName="Tabela13581516" ref="B30:H34" totalsRowShown="0" headerRowDxfId="239" dataDxfId="237" headerRowBorderDxfId="238" tableBorderDxfId="236" totalsRowBorderDxfId="235">
   <autoFilter ref="B30:H34"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="237"/>
-    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="236"/>
-    <tableColumn id="3" name="Condição de execução " dataDxfId="235"/>
-    <tableColumn id="4" name="Pré-condição" dataDxfId="234"/>
-    <tableColumn id="5" name="Pontos de observação" dataDxfId="233"/>
-    <tableColumn id="6" name="Resultado esperado" dataDxfId="232"/>
-    <tableColumn id="7" name="Resultado Obtido" dataDxfId="0"/>
+    <tableColumn id="1" name="N° Caso de Teste " dataDxfId="234"/>
+    <tableColumn id="2" name="Descrição do Caso de Teste" dataDxfId="233"/>
+    <tableColumn id="3" name="Condição de execução " dataDxfId="232"/>
+    <tableColumn id="4" name="Pré-condição" dataDxfId="231"/>
+    <tableColumn id="5" name="Pontos de observação" dataDxfId="230"/>
+    <tableColumn id="6" name="Resultado esperado" dataDxfId="229"/>
+    <tableColumn id="7" name="Resultado Obtido" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8882,8 +8940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:H49"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -10021,7 +10079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -11622,7 +11680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -11755,8 +11813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11824,7 +11882,9 @@
       <c r="G3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -11845,9 +11905,11 @@
       <c r="G4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H4" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -11866,7 +11928,9 @@
       <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -11887,7 +11951,9 @@
       <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
@@ -11942,7 +12008,9 @@
       <c r="G10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
@@ -11963,7 +12031,9 @@
       <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -11984,7 +12054,9 @@
       <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -12005,7 +12077,9 @@
       <c r="G13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -12026,7 +12100,9 @@
       <c r="G14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -12047,9 +12123,11 @@
       <c r="G15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -12068,7 +12146,9 @@
       <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
@@ -12089,7 +12169,9 @@
       <c r="G17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -12153,7 +12235,9 @@
       <c r="G21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="22" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -12174,7 +12258,9 @@
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="23" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -12195,7 +12281,9 @@
       <c r="G23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="24" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -12216,7 +12304,9 @@
       <c r="G24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -12237,7 +12327,9 @@
       <c r="G25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
@@ -12258,7 +12350,9 @@
       <c r="G26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="7" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="27" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
@@ -12279,7 +12373,9 @@
       <c r="G27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="7" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
@@ -12334,7 +12430,9 @@
       <c r="G31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="32" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
@@ -12355,7 +12453,9 @@
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
@@ -12376,7 +12476,9 @@
       <c r="G33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
@@ -12397,7 +12499,9 @@
       <c r="G34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12420,8 +12524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12489,7 +12593,9 @@
       <c r="G3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="19" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -12510,7 +12616,9 @@
       <c r="G4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="18" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -12531,9 +12639,11 @@
       <c r="G5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H5" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
@@ -12552,7 +12662,9 @@
       <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -12573,7 +12685,9 @@
       <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
@@ -12628,7 +12742,9 @@
       <c r="G11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -12649,7 +12765,9 @@
       <c r="G12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -12670,7 +12788,9 @@
       <c r="G13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -12691,7 +12811,9 @@
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -12712,7 +12834,9 @@
       <c r="G15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
@@ -12731,9 +12855,11 @@
         <v>29</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
@@ -12754,7 +12880,9 @@
       <c r="G17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -12775,9 +12903,11 @@
       <c r="G18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
@@ -12796,7 +12926,9 @@
       <c r="G19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
@@ -12817,7 +12949,9 @@
       <c r="G20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -12881,7 +13015,9 @@
       <c r="G24" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -12902,7 +13038,9 @@
       <c r="G25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -12923,7 +13061,9 @@
       <c r="G26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="27" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -12944,7 +13084,9 @@
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="28" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -12965,7 +13107,9 @@
       <c r="G28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="29" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
@@ -12986,7 +13130,9 @@
       <c r="G29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
@@ -13007,7 +13153,9 @@
       <c r="G30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
@@ -13028,7 +13176,9 @@
       <c r="G31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="32" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
@@ -13049,7 +13199,9 @@
       <c r="G32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -13104,7 +13256,9 @@
       <c r="G36" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
@@ -13125,7 +13279,9 @@
       <c r="G37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
@@ -13146,7 +13302,9 @@
       <c r="G38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
@@ -13167,7 +13325,9 @@
       <c r="G39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13188,10 +13348,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13259,7 +13419,9 @@
       <c r="G3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -13280,7 +13442,9 @@
       <c r="G4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -13301,9 +13465,11 @@
       <c r="G5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
@@ -13322,7 +13488,9 @@
       <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -13343,7 +13511,9 @@
       <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
@@ -13398,7 +13568,9 @@
       <c r="G11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -13419,7 +13591,9 @@
       <c r="G12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -13440,7 +13614,9 @@
       <c r="G13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -13461,7 +13637,9 @@
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -13482,7 +13660,9 @@
       <c r="G15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
@@ -13503,7 +13683,9 @@
       <c r="G16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
@@ -13524,7 +13706,9 @@
       <c r="G17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -13545,9 +13729,11 @@
       <c r="G18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
@@ -13566,7 +13752,9 @@
       <c r="G19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
@@ -13587,7 +13775,9 @@
       <c r="G20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -13651,7 +13841,9 @@
       <c r="G24" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -13672,7 +13864,9 @@
       <c r="G25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -13693,7 +13887,9 @@
       <c r="G26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="27" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -13714,7 +13910,9 @@
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="28" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -13735,7 +13933,9 @@
       <c r="G28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="29" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
@@ -13756,7 +13956,9 @@
       <c r="G29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
@@ -13777,7 +13979,9 @@
       <c r="G30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
@@ -13798,7 +14002,9 @@
       <c r="G31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="32" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
@@ -13819,7 +14025,9 @@
       <c r="G32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -13874,7 +14082,9 @@
       <c r="G36" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
@@ -13895,7 +14105,9 @@
       <c r="G37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
@@ -13916,7 +14128,9 @@
       <c r="G38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
@@ -13937,7 +14151,12 @@
       <c r="G39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13947,11 +14166,12 @@
     <mergeCell ref="B34:H34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>